--- a/data/minfin/21_questions.xlsx
+++ b/data/minfin/21_questions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="174">
   <si>
     <t>question</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Зарегистрировать, КТТ, контрольно-кассовая, техника, без, применения, личного кабинета</t>
   </si>
   <si>
-    <t>Необходимо посетить налоговую инспекцию и подать соответствующее заявление</t>
-  </si>
-  <si>
     <t>Такая возможность есть. Для этого необходимо посетить любую налоговую инспекцию и подать соответствующее заявление</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>При заборе воды из водного объекта в объемах, превышающих лимиты водопользования, налоговые ставки в части такого превышения устанавливаются в пятикратном размере от общеустановленных налоговых ставок водного налога</t>
   </si>
   <si>
-    <t>При заборе воды из водного объекта в объемах, превышающих квартальные (годовые) лимиты водопользования, определенные в разрешительных документах на пользование водными объектами, налоговые ставки в части такого превышения устанавливаются в пятикратном размере от общеустановленных налоговых ставок водного налога</t>
-  </si>
-  <si>
     <t>21.23</t>
   </si>
   <si>
@@ -327,9 +321,6 @@
     <t>Лицензируется ли розничная продажа алкогольной продукции?</t>
   </si>
   <si>
-    <t>Розничная продажа алкогольной продукции должна лицензироваться</t>
-  </si>
-  <si>
     <t xml:space="preserve">С какого периода Минфин России является органом исполнительной власти, осуществляющим функции по выработке государственной политики и нормативно-правовому регулированию в сфере производства и оборота этилового спирта, алкогольной и спиртосодержащей продукции? </t>
   </si>
   <si>
@@ -337,9 +328,6 @@
   </si>
   <si>
     <t>Какой орган осуществляет контроль за производством и оборотом этилового спирта, алкогольной и спиртосодержащей продукции?</t>
-  </si>
-  <si>
-    <t>За производством и оборотом этилового спирта, алкогольной и спиртосодержащей продукции контроль осуществляет Федеральная служба по регулированию алкогольного рынка</t>
   </si>
   <si>
     <t>21.11</t>
@@ -459,12 +447,6 @@
   </si>
   <si>
     <t>федеральные, налоги, сборы, уплачиваются, установлены, при пользовании, природные ресурсы</t>
-  </si>
-  <si>
-    <t>При пользовании природными ресурсами уплачивается три федеральных налоговых платежа:
-• при пользовании недрами – налог на добычу полезных ископаемых;
-• при использовании водных объектов –  водный налог;
-• при осуществлении охоты и (или) рыболовства – сборы за пользование объектами животного мира и за пользование объектами водных биологических ресурсов</t>
   </si>
   <si>
     <t>виды, налоговые, ставка, применяются, при исчислении, налога на добычу полезных ископаемых, НДПИ</t>
@@ -574,10 +556,6 @@
     <t>Лицензируется, розничная, продажа, алкогольной продукции</t>
   </si>
   <si>
-    <t>Розничная продажа алкогольной продукции должна лицензироваться.
-Это закреплено в Федеральном законе от 22 ноября 1995 г. № 171-ФЗ «О государственном регулировании производства и оборота этилового спирта, алкогольной и спиртосодержащей продукции и об ограничении потребления (распития) алкогольной продукции»</t>
-  </si>
-  <si>
     <t>период, Минфин России, МФ, органом, исполнительной власти, осуществляющим, функции, по выработке, государственной политики, нормативно-правовому регулированию, в сфере производства, оборот, этилового спирта, алкогольной, спиртосодержащей, продукции</t>
   </si>
   <si>
@@ -588,6 +566,73 @@
   </si>
   <si>
     <t>Минфин России осуществляет указанные функции с пятнадцатого января две тысячи шестнадцатого года</t>
+  </si>
+  <si>
+    <t>Налоговая база при реализации (передаче) произведенных налогоплательщиком подакцизных товаров определяется в зависимости от установленных в отношении этих товаров налоговых ставок как объем реализованных (переданных) подакцизных товаров в натуральном выражении или как стоимость реализованных (переданных) подакцизных товаров</t>
+  </si>
+  <si>
+    <t>Зарегистрировать контрольно-кассовую технику в Фэ Нэ эС России, а также перерегистрировать или снять с учета теперь можно в личном кабинете на сайте nalog ru. Электронная регистрация занимает пятнадцать минут и не требует личного присутствия в налоговых органах</t>
+  </si>
+  <si>
+    <t>Оператор фискальных данных – это сертифицированная Фэ Нэ эС России организация, занимающаяся обработкой  фискальных данных, принимающая чеки от контрольно-кассовой техники, осуществляющая их проверку и направляющая подтверждение об их получении обратно в контрольно-кассовую технику</t>
+  </si>
+  <si>
+    <t>С перечнем моделей контрольно-кассовой техники и фискальных накопителей, соответствующих новому порядку можно ознакомиться на сайте Фэ Нэ эС России и на сайте изготовителя контрольно-кассовой техники</t>
+  </si>
+  <si>
+    <t>Предусмотренные Налоговым кодексом Российской Федерации налоги с физических лиц, в том числе транспортный налог могут быть исчислены только за три года</t>
+  </si>
+  <si>
+    <t>Производство и оборот этилового спирта, алкогольной и спиртосодержащей продукции регулируется Федеральным законом от двадцать второго ноября одна тысяча девятьсот девяносто пятого года номер сто семьдесят один Фэ Зэ</t>
+  </si>
+  <si>
+    <t>В личном кабинете необходимо выбрать пункт «Зарегистрировать Ка Ка Тэ». Заполнив электронное заявление и подписав его квалифицированной электронной подписью, получите регистрационный номер контрольно-кассовой техники. Полученный номер необходимо ввести в контрольно-кассовый аппарат, напечатать отчет о регистрации и дополнительно отправить в налоговый орган не позднее следующего рабочего дня после получения регистрационного номера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размер штрафа зависит от вида нарушения и суммы операций, произведенных без применения Ка Ка Тэ. 
+Предусмотрены штрафы за не соответствие Ка Ка Тэ требованиям законодательства, за не отправку продавцом чека покупателю и неприменение Ка Ка Тэ  </t>
+  </si>
+  <si>
+    <t>На производство этилового спирта, алкогольной и спиртосодержащей продукции требуется лицензия</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Необходимо посетить </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>любую</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> налоговую инспекцию и подать соответствующее заявление</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">При пользовании природными ресурсами уплачивается три федеральных налоговых платежа:
+• при пользовании недрами – налог на добычу полезных ископаемых;
+• при пользовании водными объектами –  водный налог;
+• при осуществлении добычи объектов животного мира и добычи (вылова) водных биологических ресурсов– сборы за пользование объектами животного мира и за пользование объектами водных биологических ресурсов
+</t>
+  </si>
+  <si>
+    <t>Налогоплательщик, плательщик, налог, на добычу полезных ископаемых, НДПИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При заборе воды из водного объекта в объемах, превышающих квартальные (годовые) лимиты водопользования, определенные в разрешительных документах на пользование водными объектами,  налоговые ставки в части такого превышения устанавливаются в пятикратном размере от общеустановленных налоговых ставок водного налога с учетом коэффициентов, установленных пунктом 1.1 статьи 333.12 главы 25.2 НК РФ 
+При добыче подземных вод сверх установленного в лицензии на пользование недрами для добычи подземных вод разрешенного (предельно допустимого) водоотбора в сутки (год) в расчете за налоговый период налоговые ставки в части такого превышения устанавливаются в пятикратном размере от установленных налоговых ставок с учетом коэффициентов, установленных пунктом 1.1 статьи 333.12 главы 25.2 НК РФ. </t>
   </si>
   <si>
     <r>
@@ -612,7 +657,27 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> числа месяца, следующего за истекшим налоговым периодом; или позднее </t>
+      <t xml:space="preserve"> числа месяца, следующего за истекшим налоговым периодом; или </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>НЕ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> позднее </t>
     </r>
     <r>
       <rPr>
@@ -637,36 +702,41 @@
     </r>
   </si>
   <si>
-    <t>Налоговая база при реализации (передаче) произведенных налогоплательщиком подакцизных товаров определяется в зависимости от установленных в отношении этих товаров налоговых ставок как объем реализованных (переданных) подакцизных товаров в натуральном выражении или как стоимость реализованных (переданных) подакцизных товаров</t>
-  </si>
-  <si>
-    <t>В личном кабинете необходимо выбрать пункт «Зарегистрировать Кэ Кэ Тэ». Заполнив электронное заявление и подписав его квалифицированной электронной подписью, получите регистрационный номер контрольно-кассовой техники. Полученный номер необходимо ввести в контрольно-кассовый аппарат, напечатать отчет о регистрации и дополнительно отправить в налоговый орган не позднее следующего рабочего дня после получения регистрационного номера</t>
-  </si>
-  <si>
-    <t>Зарегистрировать контрольно-кассовую технику в Фэ Нэ эС России, а также перерегистрировать или снять с учета теперь можно в личном кабинете на сайте nalog ru. Электронная регистрация занимает пятнадцать минут и не требует личного присутствия в налоговых органах</t>
-  </si>
-  <si>
-    <t>Оператор фискальных данных – это сертифицированная Фэ Нэ эС России организация, занимающаяся обработкой  фискальных данных, принимающая чеки от контрольно-кассовой техники, осуществляющая их проверку и направляющая подтверждение об их получении обратно в контрольно-кассовую технику</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Размер штрафа зависит от вида нарушения и суммы операций, произведенных без применения Кэ Кэ Тэ. 
-Предусмотрены штрафы за не соответствие Кэ Кэ Тэ требованиям законодательства, за не отправку продавцом чека покупателю и неприменение Кэ Кэ Тэ  </t>
-  </si>
-  <si>
-    <t>С перечнем моделей контрольно-кассовой техники и фискальных накопителей, соответствующих новому порядку можно ознакомиться на сайте Фэ Нэ эС России и на сайте изготовителя контрольно-кассовой техники</t>
-  </si>
-  <si>
-    <t>Предусмотренные Налоговым кодексом Российской Федерации налоги с физических лиц, в том числе транспортный налог могут быть исчислены только за три года</t>
-  </si>
-  <si>
-    <t>Производство и оборот этилового спирта, алкогольной и спиртосодержащей продукции регулируется Федеральным законом от двадцать второго ноября одна тысяча девятьсот девяносто пятого года номер сто семьдесят один Фэ Зэ</t>
+    <t>Розничная продажа алкогольной продукции (за исключением пива, пивных напитков, сидра, пуаре и медовухи) должна лицензироваться</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Розничная продажа алкогольной продукции (за исключением пива, пивных напитков, сидра, пуаре и медовухи) должна лицензироваться.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Это закреплено в Федеральном законе от 22 ноября 1995 г. № 171-ФЗ «О государственном регулировании производства и оборота этилового спирта, алкогольной и спиртосодержащей продукции и об ограничении потребления (распития) алкогольной продукции»</t>
+    </r>
+  </si>
+  <si>
+    <t>Контроль за производством и оборотом (за исключением розничной продажи алкогольной продукции) этилового спирта, алкогольной и спиртосодержащей продукции осуществляет Федеральная служба по регулированию алкогольного рынка.
+ Контроль за розничной продажей алкогольной продукции осуществляют лицензирующие данный вид деятельности лицензирующие органы субъектов Российской Федерации</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,13 +774,39 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -725,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -774,6 +870,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,7 +1203,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1096,18 +1213,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="98.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="77.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="114.140625" style="16" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" style="2" customWidth="1"/>
     <col min="6" max="10" width="28.140625" style="2" customWidth="1"/>
@@ -1166,16 +1283,16 @@
         <v>24</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="78.75">
@@ -1186,7 +1303,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>27</v>
@@ -1203,14 +1320,14 @@
       <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>165</v>
+      <c r="C4" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="63">
@@ -1220,31 +1337,31 @@
       <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D6" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="63">
@@ -1252,16 +1369,16 @@
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="173.25">
@@ -1269,16 +1386,16 @@
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1288,22 +1405,22 @@
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="78.75">
@@ -1311,430 +1428,430 @@
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="94.5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="D11" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="236.25">
       <c r="A12" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>168</v>
+        <v>43</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="157.5">
       <c r="A13" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="D13" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="141.75">
       <c r="A17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="D17" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="141.75">
       <c r="A18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="110.25">
+      <c r="A19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="78.75">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="63">
+      <c r="A20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="252">
-      <c r="A20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="D20" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>135</v>
+        <v>68</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="126">
       <c r="A21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D21" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="47.25">
       <c r="A22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="E22" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="157.5">
+      <c r="A23" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="78.75">
-      <c r="A23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>79</v>
+      <c r="D23" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="283.5">
       <c r="A24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="D24" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="31.5">
       <c r="A25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="D25" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="110.25">
       <c r="A26" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="236.25">
       <c r="A27" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>163</v>
+        <v>87</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="336" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="94.5">
+      <c r="A29" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" ht="78.75">
-      <c r="A29" s="8" t="s">
+      <c r="C29" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="E29" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" ht="141.75">
       <c r="A30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="D30" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" ht="63">
       <c r="A31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="78.75">
+      <c r="A32" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="63">
-      <c r="A32" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>158</v>
+      <c r="C32" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="189">
       <c r="A33" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="94.5">
       <c r="A34" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>106</v>
+        <v>155</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:5">

--- a/data/minfin/21_questions.xlsx
+++ b/data/minfin/21_questions.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -735,8 +735,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1203,24 +1203,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" style="2" customWidth="1"/>
@@ -1234,7 +1234,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="173.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="157.5">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="173.25">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
@@ -1400,7 +1400,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="236.25">
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>103</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="157.5">
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>104</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>46</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>50</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25">
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>54</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="141.75">
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>57</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="141.75">
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>60</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="110.25">
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>63</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="63">
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>66</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="126">
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>69</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="47.25">
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>72</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="157.5">
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>75</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="283.5">
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>78</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="31.5">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>81</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="110.25">
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>84</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="236.25">
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="252" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>86</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="336" customHeight="1">
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="336" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>88</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" ht="94.5">
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>90</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="141.75">
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>93</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" ht="63">
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>96</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="78.75">
+    <row r="32" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>98</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="189">
+    <row r="33" spans="1:5" ht="189" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>136</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="94.5">
+    <row r="34" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>137</v>
       </c>
@@ -1854,19 +1854,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
     </row>
   </sheetData>

--- a/data/minfin/21_questions.xlsx
+++ b/data/minfin/21_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -126,9 +126,6 @@
     <t>Кто такие операторы фискальных данных?</t>
   </si>
   <si>
-    <t>Оператор фискальных данных – это сертифицированная ФНС России организация, занимающаяся обработкой  фискальных данных, принимающая чеки от контрольно-кассовой техники, осуществляющая их проверку и направляющая подтверждение об их получении обратно в контрольно-кассовую технику</t>
-  </si>
-  <si>
     <t>Какие новые требования к данным в чеках?</t>
   </si>
   <si>
@@ -150,12 +147,6 @@
     <t>Заключение договора в электронном виде производится на сайте выбранного оператора фискальных данных. Для заключения договора на бумажном носителе пользователю контрольно-кассовой техники необходимо напрямую связаться с выбранным оператором</t>
   </si>
   <si>
-    <t>Какие штрафы предусмотрены за нарушение норм законодательства о контрольно-кассовой технике</t>
-  </si>
-  <si>
-    <t>Должны ли организации,  применяющие упрощенную систему налогообложения или перешедшие на уплату налога на вмененный доход для отдельных видов деятельности, уплачивать налог на имущество организаций?</t>
-  </si>
-  <si>
     <t>Применение организациями упрощенной системы налогообложения или уплата ими единого налога на вмененный доход для отдельных видов деятельности предусматривает их освобождение от уплаты налога на имущество организаций за исключением налога, уплачиваемого в отношении объектов недвижимого имущества, налоговая база по которым определяется как их кадастровая стоимость</t>
   </si>
   <si>
@@ -177,21 +168,9 @@
     <t>Возникает ли обязанность уплачивать земельный налог, если земельный участок используется на праве безвозмездного срочного пользования?</t>
   </si>
   <si>
-    <t>Если земельный участок используется на праве безвозмездного срочного пользования, то обязанность уплачивать, земельный налог не возникает</t>
-  </si>
-  <si>
-    <t>Если земельный участок используется на праве безвозмездного срочного пользования, то обязанность уплачивать, земельный налог не возникает, поскольку налогоплательщиками по земельному налогу признаются лица в отношении земельных участков, принадлежащих им на праве собственности или на праве постоянного (бессрочного) пользования</t>
-  </si>
-  <si>
     <t>21.15</t>
   </si>
   <si>
-    <t>За какой период налогоплательщику – физическому лицу может быть исчислен транспортный налог?</t>
-  </si>
-  <si>
-    <t>Предусмотренные Налоговым кодексом РФ налоги с физических лиц, в том числе транспортный налог могут быть исчислены только за 3 года</t>
-  </si>
-  <si>
     <t>21.16</t>
   </si>
   <si>
@@ -204,9 +183,6 @@
     <t>21.17</t>
   </si>
   <si>
-    <t>Налогообложение транспортных средств налогом на имущество организаций и транспортным налогом  нарушает принципы налогообложения, предусмотренных НК РФ, поскольку возникает двойное налогообложение одного объекта, например грузового автомобиля. Так ли это?</t>
-  </si>
-  <si>
     <t>Налог на имущество организаций и транспортный налог имеют самостоятельные объекты налогообложения и самостоятельные налоговые базы и, следовательно, не могут рассматриваться как допускающие двойное налогообложение одного и того же экономического объекта</t>
   </si>
   <si>
@@ -231,9 +207,6 @@
     <t>21.20</t>
   </si>
   <si>
-    <t>Какие виды налоговых ставок  применяются при исчислении налога на добычу полезных ископаемых?</t>
-  </si>
-  <si>
     <t>В отношении большинства видов полезных ископаемых установлены адвалорные ставки налога, в отношении угля; углеводородного сырья; многокомпонентных комплексных руд установлены специфические ставки</t>
   </si>
   <si>
@@ -303,9 +276,6 @@
     <t>21.29</t>
   </si>
   <si>
-    <t>Какие виды алкогольной продукции Вы знаете?</t>
-  </si>
-  <si>
     <t>Алкогольная продукция подразделяется на такие виды, как: спиртные напитки; вино; фруктовое, ликерное, игристое вино; винные напитки; пиво; напитки, изготавливаемые на основе пива, сидра, пуаре, медовухи</t>
   </si>
   <si>
@@ -322,9 +292,6 @@
   </si>
   <si>
     <t xml:space="preserve">С какого периода Минфин России является органом исполнительной власти, осуществляющим функции по выработке государственной политики и нормативно-правовому регулированию в сфере производства и оборота этилового спирта, алкогольной и спиртосодержащей продукции? </t>
-  </si>
-  <si>
-    <t>Согласно Указу Президента РФ от 15 января 2016 г. № 12 Минфин России осуществляет функции по выработке государственной политики и нормативно-правовому регулированию в сфере производства и оборота этилового спирта, алкогольной и спиртосодержащей продукции с15 января 2016 года</t>
   </si>
   <si>
     <t>Какой орган осуществляет контроль за производством и оборотом этилового спирта, алкогольной и спиртосодержащей продукции?</t>
@@ -377,11 +344,6 @@
 • заводской номер экземпляра модели фискального накопителя;
 • адрес сайта в «Интернете», на котором можно проверить легальность кассового чека;
 • абонентский номер или адрес электронной почты покупателя, в случае направления ему кассового чека в электронной форме</t>
-  </si>
-  <si>
-    <t>С перечнем моделей контрольно-кассовой техники и фискальных накопителей, соответствующих новому порядку можно ознакомиться:
-• на сайте ФНС России по адресу nalog.ru в разделе «Контрольно-кассовая техника». При этом перечень моделей ККТ и фискальных накопителей постоянно наполняется и актуализируется;
-• на сайте изготовителя контрольно-кассовой техники</t>
   </si>
   <si>
     <t>Где, подлежит, ККТ, контрольно-кассовая, техника, модернизация</t>
@@ -440,10 +402,6 @@
   </si>
   <si>
     <t>Налогообложение, транспортных средств, налог, имущество организаций, транспортный, нарушает, принципы, налогообложения, Налоговый кодекс, НК, РФ, возникает, двойное, одного объекта, грузовой автомобиль</t>
-  </si>
-  <si>
-    <t>По вопросу двойного налогообложения транспортных средств правовая позиция, выражена Конституционным Судом Российской Федерации (Определения от 14.12.2015 № 451-О).
-Оценка положений пункта 1 статьи 374 НК РФ во взаимосвязи со статьями 17, 19, 38, 53 и 358 НК РФ позволяет сделать вывод, что налог на имущество организаций и транспортный налог имеют самостоятельные объекты налогообложения и самостоятельные налоговые базы и, следовательно, не могут рассматриваться как допускающие двойное налогообложение одного и того же экономического объекта, а потому - как нарушающие принципы справедливого и соразмерного налогообложения, вытекающие из статей 1 (часть 1), 55 (часть 3) и 57 Конституции Российской Федерации</t>
   </si>
   <si>
     <t>федеральные, налоги, сборы, уплачиваются, установлены, при пользовании, природные ресурсы</t>
@@ -507,16 +465,6 @@
   </si>
   <si>
     <t>срок, предоставление, налоговой декларации, акциз</t>
-  </si>
-  <si>
-    <t>Налогоплательщики обязаны представлять в налоговые органы по месту своего нахождения, в которых они состоят на учете налоговую декларацию за налоговый период в части осуществляемых ими операций, признаваемых объектом налогообложения в срок:
-1) не позднее 25-го числа месяца, следующего за истекшим налоговым периодом;
-2) не позднее 25-го числа третьего месяца, следующего за истекшим налоговым периодом, налогоплательщиками:
-• имеющими свидетельство о регистрации лица, совершающего операции с прямогонным бензином, - при совершении операций с прямогонным бензином;
-• имеющими свидетельство о регистрации лица, совершающего операции с бензолом, параксилолом или ортоксилолом, - при совершении операций с бензолом, параксилолом или ортоксилолом; 
-• имеющими свидетельство о регистрации организации, совершающей операции со средними дистиллятами, - при совершении операций со средними дистиллятами;
-• имеющими свидетельство о регистрации организации, совершающей операции с денатурированным этиловым спиртом, - при совершении операций с денатурированным этиловым спиртом; 
-• включенными в Реестр эксплуатантов гражданской авиации Российской Федерации и имеющими сертификат (свидетельство) эксплуатанта, - при совершении операций с авиационным керосином</t>
   </si>
   <si>
     <t>налоговая база, при реализации, передаче, произведенных, налогоплательщиком, подакцизных, товаров</t>
@@ -621,18 +569,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">При пользовании природными ресурсами уплачивается три федеральных налоговых платежа:
-• при пользовании недрами – налог на добычу полезных ископаемых;
-• при пользовании водными объектами –  водный налог;
-• при осуществлении добычи объектов животного мира и добычи (вылова) водных биологических ресурсов– сборы за пользование объектами животного мира и за пользование объектами водных биологических ресурсов
-</t>
-  </si>
-  <si>
     <t>Налогоплательщик, плательщик, налог, на добычу полезных ископаемых, НДПИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При заборе воды из водного объекта в объемах, превышающих квартальные (годовые) лимиты водопользования, определенные в разрешительных документах на пользование водными объектами,  налоговые ставки в части такого превышения устанавливаются в пятикратном размере от общеустановленных налоговых ставок водного налога с учетом коэффициентов, установленных пунктом 1.1 статьи 333.12 главы 25.2 НК РФ 
-При добыче подземных вод сверх установленного в лицензии на пользование недрами для добычи подземных вод разрешенного (предельно допустимого) водоотбора в сутки (год) в расчете за налоговый период налоговые ставки в части такого превышения устанавливаются в пятикратном размере от установленных налоговых ставок с учетом коэффициентов, установленных пунктом 1.1 статьи 333.12 главы 25.2 НК РФ. </t>
   </si>
   <si>
     <r>
@@ -728,15 +665,78 @@
     </r>
   </si>
   <si>
+    <t>Оператор фискальных данных – это сертифицированная ФНС России организация, занимающаяся обработкой фискальных данных, принимающая чеки от контрольно-кассовой техники, осуществляющая их проверку и направляющая подтверждение об их получении обратно в контрольно-кассовую технику</t>
+  </si>
+  <si>
+    <t>С перечнем моделей контрольно-кассовой техники и фискальных накопителей, соответствующих новому порядку, можно ознакомиться:
+• на сайте ФНС России по адресу nalog.ru в разделе «Контрольно-кассовая техника». При этом перечень моделей ККТ и фискальных накопителей постоянно наполняется и актуализируется;
+• на сайте изготовителя контрольно-кассовой техники</t>
+  </si>
+  <si>
+    <t>Какие штрафы предусмотрены за нарушение норм законодательства о контрольно-кассовой технике?</t>
+  </si>
+  <si>
+    <t>Должны ли организации, применяющие упрощенную систему налогообложения или перешедшие на уплату налога на вмененный доход для отдельных видов деятельности, уплачивать налог на имущество организаций?</t>
+  </si>
+  <si>
+    <t>Если земельный участок используется на праве безвозмездного срочного пользования, то обязанность уплачивать земельный налог не возникает, поскольку налогоплательщиками по земельному налогу признаются лица в отношении земельных участков, принадлежащих им на праве собственности или на праве постоянного (бессрочного) пользования</t>
+  </si>
+  <si>
+    <t>Если земельный участок используется на праве безвозмездного срочного пользования, то обязанность уплачивать земельный налог не возникает</t>
+  </si>
+  <si>
+    <t>За какой период налогоплательщику - физическому лицу может быть исчислен транспортный налог?</t>
+  </si>
+  <si>
+    <t>Предусмотренные Налоговым кодексом РФ налоги с физических лиц, в том числе транспортный налог, могут быть исчислены только за 3 года</t>
+  </si>
+  <si>
+    <t>Налогообложение транспортных средств налогом на имущество организаций и транспортным налогом нарушает принципы налогообложения, предусмотренные НК РФ, поскольку возникает двойное налогообложение одного объекта, например, грузового автомобиля. Так ли это?</t>
+  </si>
+  <si>
+    <t>По вопросу двойного налогообложения транспортных средств правовая позиция выражена Конституционным Судом Российской Федерации (Определения от 14.12.2015 № 451-О).
+Оценка положений пункта 1 статьи 374 НК РФ во взаимосвязи со статьями 17, 19, 38, 53 и 358 НК РФ позволяет сделать вывод, что налог на имущество организаций и транспортный налог имеют самостоятельные объекты налогообложения и самостоятельные налоговые базы и, следовательно, не могут рассматриваться как допускающие двойное налогообложение одного и того же экономического объекта, а потому - как нарушающие принципы справедливого и соразмерного налогообложения, вытекающие из статей 1 (часть 1), 55 (часть 3) и 57 Конституции Российской Федерации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При пользовании природными ресурсами уплачивается три федеральных налоговых платежа:
+• при пользовании недрами – налог на добычу полезных ископаемых;
+• при пользовании водными объектами – водный налог;
+• при осуществлении добычи объектов животного мира и добычи (вылова) водных биологических ресурсов – сборы за пользование объектами животного мира и за пользование объектами водных биологических ресурсов
+</t>
+  </si>
+  <si>
+    <t>Какие виды налоговых ставок применяются при исчислении налога на добычу полезных ископаемых?</t>
+  </si>
+  <si>
+    <t>При заборе воды из водного объекта в объемах, превышающих квартальные (годовые) лимиты водопользования, определенные в разрешительных документах на пользование водными объектами, налоговые ставки в части такого превышения устанавливаются в пятикратном размере от общеустановленных налоговых ставок водного налога с учетом коэффициентов, установленных пунктом 1.1 статьи 333.12 главы 25.2 НК РФ.
+При добыче подземных вод сверх установленного в лицензии на пользование недрами для добычи подземных вод разрешенного (предельно допустимого) водоотбора в сутки (год) в расчете за налоговый период налоговые ставки в части такого превышения устанавливаются в пятикратном размере от установленных налоговых ставок с учетом коэффициентов, установленных пунктом 1.1 статьи 333.12 главы 25.2 НК РФ</t>
+  </si>
+  <si>
+    <t>Налогоплательщики обязаны представлять в налоговые органы по месту своего нахождения, в которых они состоят на учете, налоговую декларацию за налоговый период в части осуществляемых ими операций, признаваемых объектом налогообложения в срок:
+1) не позднее 25-го числа месяца, следующего за истекшим налоговым периодом;
+2) не позднее 25-го числа третьего месяца, следующего за истекшим налоговым периодом, налогоплательщиками:
+• имеющими свидетельство о регистрации лица, совершающего операции с прямогонным бензином, - при совершении операций с прямогонным бензином;
+• имеющими свидетельство о регистрации лица, совершающего операции с бензолом, параксилолом или ортоксилолом, - при совершении операций с бензолом, параксилолом или ортоксилолом; 
+• имеющими свидетельство о регистрации организации, совершающей операции со средними дистиллятами, - при совершении операций со средними дистиллятами;
+• имеющими свидетельство о регистрации организации, совершающей операции с денатурированным этиловым спиртом, - при совершении операций с денатурированным этиловым спиртом; 
+• включенными в Реестр эксплуатантов гражданской авиации Российской Федерации и имеющими сертификат (свидетельство) эксплуатанта, - при совершении операций с авиационным керосином</t>
+  </si>
+  <si>
+    <t>Какие виды алкогольной продукции вы знаете?</t>
+  </si>
+  <si>
+    <t>Согласно Указу Президента РФ от 15 января 2016 г. № 12 Минфин России осуществляет функции по выработке государственной политики и нормативно-правовому регулированию в сфере производства и оборота этилового спирта, алкогольной и спиртосодержащей продукции с 15 января 2016 года</t>
+  </si>
+  <si>
     <t>Контроль за производством и оборотом (за исключением розничной продажи алкогольной продукции) этилового спирта, алкогольной и спиртосодержащей продукции осуществляет Федеральная служба по регулированию алкогольного рынка.
- Контроль за розничной продажей алкогольной продукции осуществляют лицензирующие данный вид деятельности лицензирующие органы субъектов Российской Федерации</t>
+Контроль за розничной продажей алкогольной продукции осуществляют лицензирующие данный вид деятельности лицензирующие органы субъектов Российской Федерации</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1203,24 +1203,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" style="2" customWidth="1"/>
@@ -1234,7 +1234,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="173.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -1283,19 +1283,19 @@
         <v>24</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>27</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="157.5">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1321,16 +1321,16 @@
         <v>28</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>31</v>
@@ -1347,7 +1347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1361,10 +1361,10 @@
         <v>33</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
@@ -1372,501 +1372,501 @@
         <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="173.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="236.25">
+      <c r="A12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="157.5">
+      <c r="A13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="D13" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="78.75">
+      <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="B14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="78.75">
+      <c r="A15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25">
+      <c r="A16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="E16" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="141.75">
+      <c r="A17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="141.75">
+      <c r="A18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="B18" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="D18" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="110.25">
+      <c r="A19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="B19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="C19" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>167</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="63">
       <c r="A20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="126">
+      <c r="A21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="47.25">
+      <c r="A22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="157.5">
+      <c r="A23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>169</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="283.5">
+      <c r="A24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="31.5">
+      <c r="A25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="110.25">
+      <c r="A26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="236.25">
+      <c r="A27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="336" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="94.5">
+      <c r="A29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="141.75">
+      <c r="A30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="283.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="E30" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="63">
+      <c r="A31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="78.75">
+      <c r="A32" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="189">
+      <c r="A33" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="5" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="94.5">
+      <c r="A34" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="252" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="336" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="189" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>173</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="8"/>
     </row>
   </sheetData>
